--- a/SubRES_TMPL/SubRES_New-IND_Trans.xlsx
+++ b/SubRES_TMPL/SubRES_New-IND_Trans.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21929"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22827"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\VEDA\VEDA_Models\DemoS_ADV_Stuttgart061118\SubRES_TMPL\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\VEDA\VEDA_Models\Demo_Adv_Veda\SubRES_TMPL\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{A239125D-85DE-4635-B3B9-97118F735627}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{21FC66AD-41F1-4149-82BB-1519C4931FBE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="AVA" sheetId="18" r:id="rId1"/>
@@ -30,12 +30,12 @@
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>Amit Kanudia</author>
   </authors>
   <commentList>
-    <comment ref="B3" authorId="0" shapeId="0">
+    <comment ref="B3" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000001000000}">
       <text>
         <r>
           <rPr>
@@ -65,13 +65,13 @@
 </file>
 
 <file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>Maurizio Gargiulo</author>
     <author>Gary Goldstein</author>
   </authors>
   <commentList>
-    <comment ref="B5" authorId="0" shapeId="0">
+    <comment ref="B5" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000001000000}">
       <text>
         <r>
           <rPr>
@@ -85,7 +85,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I5" authorId="1" shapeId="0">
+    <comment ref="I5" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0100-000002000000}">
       <text>
         <r>
           <rPr>
@@ -98,7 +98,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="N5" authorId="1" shapeId="0">
+    <comment ref="N5" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0100-000003000000}">
       <text>
         <r>
           <rPr>
@@ -111,7 +111,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B13" authorId="0" shapeId="0">
+    <comment ref="B13" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000004000000}">
       <text>
         <r>
           <rPr>
@@ -125,7 +125,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I13" authorId="1" shapeId="0">
+    <comment ref="I13" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0100-000005000000}">
       <text>
         <r>
           <rPr>
@@ -138,7 +138,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="N13" authorId="1" shapeId="0">
+    <comment ref="N13" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0100-000006000000}">
       <text>
         <r>
           <rPr>
@@ -156,7 +156,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="34">
   <si>
     <t>~TFM_INS</t>
   </si>
@@ -230,12 +230,6 @@
     <t>REG1</t>
   </si>
   <si>
-    <t>PRE</t>
-  </si>
-  <si>
-    <t>DMD</t>
-  </si>
-  <si>
     <t>AT</t>
   </si>
   <si>
@@ -258,13 +252,19 @@
   </si>
   <si>
     <t>UK</t>
+  </si>
+  <si>
+    <t>PSET_PN</t>
+  </si>
+  <si>
+    <t>*</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="10" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -297,12 +297,6 @@
       <sz val="12"/>
       <color indexed="53"/>
       <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="8"/>
-      <color indexed="81"/>
-      <name val="Tahoma"/>
       <family val="2"/>
     </font>
     <font>
@@ -395,7 +389,7 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
@@ -735,11 +729,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B3:Q6"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="B3:Q5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -773,7 +767,7 @@
     </row>
     <row r="4" spans="2:17" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B4" s="4" t="s">
-        <v>2</v>
+        <v>32</v>
       </c>
       <c r="C4" s="4" t="s">
         <v>3</v>
@@ -794,77 +788,63 @@
         <v>22</v>
       </c>
       <c r="I4" t="s">
+        <v>24</v>
+      </c>
+      <c r="J4" t="s">
+        <v>25</v>
+      </c>
+      <c r="K4" t="s">
         <v>26</v>
       </c>
-      <c r="J4" t="s">
+      <c r="L4" t="s">
         <v>27</v>
       </c>
-      <c r="K4" t="s">
+      <c r="M4" t="s">
         <v>28</v>
       </c>
-      <c r="L4" t="s">
+      <c r="N4" t="s">
         <v>29</v>
       </c>
-      <c r="M4" t="s">
+      <c r="O4" t="s">
         <v>30</v>
       </c>
-      <c r="N4" t="s">
+      <c r="P4" t="s">
         <v>31</v>
-      </c>
-      <c r="O4" t="s">
-        <v>32</v>
-      </c>
-      <c r="P4" t="s">
-        <v>33</v>
       </c>
       <c r="Q4" s="5" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="5" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="B5" t="s">
+        <v>33</v>
+      </c>
       <c r="F5">
+        <v>1</v>
+      </c>
+      <c r="I5">
         <v>0</v>
       </c>
-      <c r="G5">
-        <v>1</v>
-      </c>
-      <c r="H5">
-        <v>1</v>
-      </c>
-      <c r="Q5" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="6" spans="2:17" x14ac:dyDescent="0.2">
-      <c r="F6">
-        <v>1</v>
-      </c>
-      <c r="I6">
+      <c r="J5">
         <v>0</v>
       </c>
-      <c r="J6">
+      <c r="K5">
         <v>0</v>
       </c>
-      <c r="K6">
+      <c r="L5">
         <v>0</v>
       </c>
-      <c r="L6">
+      <c r="M5">
         <v>0</v>
       </c>
-      <c r="M6">
+      <c r="N5">
         <v>0</v>
       </c>
-      <c r="N6">
+      <c r="O5">
         <v>0</v>
       </c>
-      <c r="O6">
+      <c r="P5">
         <v>0</v>
-      </c>
-      <c r="P6">
-        <v>0</v>
-      </c>
-      <c r="Q6" t="s">
-        <v>25</v>
       </c>
     </row>
   </sheetData>
@@ -874,7 +854,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr codeName="Sheet2"/>
   <dimension ref="B3:P14"/>
   <sheetViews>
@@ -1050,7 +1030,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="B2:N3"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
